--- a/INDIVIDUAL_ARGUMENTS/TVbooks_tv.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/TVbooks_tv.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>#id</t>
   </si>
@@ -29,208 +28,313 @@
     <t>I love TV sooooooo much I can watch what ever i want and it is just the best.  with TV you can watch DVDs and play on playstations.</t>
   </si>
   <si>
+    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg169194</t>
   </si>
   <si>
     <t>nowadayz no one can liv wdout t.v... its common to watch t.v to all... so......... t.v ix beter than bookxx.... evrybdy vot for t.v....</t>
   </si>
   <si>
+    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg479199</t>
   </si>
   <si>
     <t>TV is better than books because the educational programs on TV are much more convenient and easy to understand. It is also easy to use for people who cannot see or hear. Books are also likely to be not updated with latest information about a certain topic while information from TV can be much more accurate and useful.</t>
   </si>
   <si>
+    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg585676</t>
   </si>
   <si>
     <t>Television uses electricity and books such as harry potter are made of trees so it causes more damage to the environment.</t>
   </si>
   <si>
+    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg585674</t>
   </si>
   <si>
     <t>A picture is worth a thousand words. TV lets you see and hear a story, or information. Imagine just reading about the recent disasters in Japan, Alabama and Missouri vs. seeing them and seeing interviews with survivors. Much more powerful and immediate on TV.  Books take too much time. TV gives the info much faster.</t>
   </si>
   <si>
+    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg640285</t>
   </si>
   <si>
     <t>i believe books are better(i believe i can fly...)  So true.</t>
   </si>
   <si>
+    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg561428</t>
   </si>
   <si>
     <t>TV ,,!! because you can get information from different resources in a short time ,,, but Books you must read a lot to get that much of information !!</t>
   </si>
   <si>
+    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135689</t>
   </si>
   <si>
     <t>you can just sit on the couch with some crisps or a burger or sweets and watch tv when you cant be botherd to to anything else</t>
   </si>
   <si>
+    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
+  </si>
+  <si>
     <t>arg399270</t>
   </si>
   <si>
     <t>Without TV actors/actresses wouldn't have jobs.  Without TV you wouldn't know what's happening around the world. I mean the newspapers can't fit all that in.  Books and newspapers can't give you emergency warnings or updates or new flashes</t>
   </si>
   <si>
+    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg376788</t>
   </si>
   <si>
     <t>BOOKZ SUCK BECAUSE it iz harder To SPELL lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol</t>
   </si>
   <si>
+    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg470033</t>
   </si>
   <si>
     <t>I think T.V. is more helpful as the you can watch and listen to something being explained like if we read about budding or spore formation we have to create an image about that in mind, but when we watch the animation of budding then we could understand better. Some people can't even imagine so T.V. is helpful. As concerning the time limit or harm to our eyes, we should watch T.V. in a limit, because the excess of everything is harmful, even reading of books.  Surveys have found that a normal person can remember 10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
+    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+  </si>
+  <si>
     <t>arg420287</t>
   </si>
   <si>
     <t>I like tv because you can watch all the porn you want with your family.</t>
   </si>
   <si>
+    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg637551</t>
   </si>
   <si>
     <t>TV can be better than books because TV can show the characters' faces and the action can be displayed that is hard for one to decipher from a book.</t>
   </si>
   <si>
+    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
+  </si>
+  <si>
     <t>arg585686</t>
   </si>
   <si>
     <t>TV is important for communication. This is to cross the charector limit.</t>
   </si>
   <si>
+    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg391600</t>
   </si>
   <si>
     <t>TV is WAY better than reading books from the blimem OLDEN DAYS!!!</t>
   </si>
   <si>
+    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
+  </si>
+  <si>
     <t>arg618914</t>
   </si>
   <si>
     <t>Unless the brain is used no human being can understand any medium. Be it TV or books. By watching the television people can create a make believe situation and think. "What if they would go left? They would be SAVED, wouldn't they?" Even viewing tv requires brains. And moreover we can watch television in the dark. But to read a book you need the lights on. Which also wastes electricity.</t>
   </si>
   <si>
+    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg246025</t>
   </si>
   <si>
     <t>tv because only tv can bring u live news at books u can't find also it's educational.</t>
   </si>
   <si>
+    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg243908</t>
   </si>
   <si>
     <t>People who are against tv keep on saying that it causes obesity.  I'm not going to go for a run and bring a book to read on the way. I think it is much easier to exercise watching tv then reading a book.  In gyms people do not have books infront of them, instead they have telvisions.  Studies have shown that telivision is even more stimulating than books.</t>
   </si>
   <si>
+    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg169089</t>
   </si>
   <si>
     <t>tv is better than books because you learn easier by seeing not read.</t>
   </si>
   <si>
+    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg525686</t>
   </si>
   <si>
     <t>tv is better than book dathu ihfej tijkjdrk xtklp09 guil09 sfjiiytg dh,lut457 p[];o;l</t>
   </si>
   <si>
+    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg363603</t>
   </si>
   <si>
     <t>I think TV is better if you are watching an informational channel and it is better than books because you can switch to different informational channels an search documentaries on different subjects and when you are done learning and ready to relax you can switch to a funny show or what ever you want to watch.</t>
   </si>
   <si>
+    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg136713</t>
   </si>
   <si>
     <t>GO TV!!!!!! GO TV!!!!  TV will win hopefully LOL  TV is great to watch anything</t>
   </si>
   <si>
+    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg420288</t>
   </si>
   <si>
     <t>tv is far superior due to its wider variety of thing to do and some people say that tv is incontinent but now you can watch tv on a smart phone witch is very convenient.</t>
   </si>
   <si>
+    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
+  </si>
+  <si>
     <t>arg376774</t>
   </si>
   <si>
     <t>TV is better because you can just explore the world while sitting on a couch.</t>
   </si>
   <si>
+    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg218504</t>
   </si>
   <si>
     <t>Yes I would say it has you relax in case your tired, but you can read to relax as well. Plus have you ever considered about the commercials and how annoying they are?</t>
   </si>
   <si>
+    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135777</t>
   </si>
   <si>
     <t>can people say some points on TV is better than books because at our school were doing a debate can you please help!!!</t>
   </si>
   <si>
+    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg420291</t>
   </si>
   <si>
     <t>I like tv tv is cool and tv is great tv is like the baby in my womb it is like the sun in the morning is is like the cool brisk air on your first day of school it is like the day you get diegnosedca with cancer it is like the day when you find out that you are lesbian it is like the day that you realize you just wasted your time reading this</t>
   </si>
   <si>
+    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+  </si>
+  <si>
     <t>arg399268</t>
   </si>
   <si>
     <t>you can get the "Foxtel Go" app on your Ipad so you can watch TV where ever and whenever you want.</t>
   </si>
   <si>
+    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135683</t>
   </si>
   <si>
     <t>I'm not sayin this cuz I love the tube, but you get more imformation than you think in the tube.  EX) News, Baseball, Spongebob, etc.</t>
   </si>
   <si>
+    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg624272</t>
   </si>
   <si>
     <t>I learned English through TV.  Technically, I learned English through interaction with native speakers, but TV helped a lot more than books.</t>
   </si>
   <si>
+    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg135741</t>
   </si>
   <si>
     <t>You can watch TV in one sitting where as a book takes all day to read. So no physical exercise will get done reading books. Exercise shows on TV make you move. SO TV IS WAY BETTER THEN BOOKS!!!!!!!</t>
   </si>
   <si>
+    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg399267</t>
   </si>
   <si>
     <t>If you can only understand or speak a specific language but you move to another country then most of the books are not in your language but TV comes in all different languages and you can also hear how the words are pronounced in a different language.</t>
   </si>
   <si>
+    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
+  </si>
+  <si>
     <t>arg135675</t>
   </si>
   <si>
     <t>I think that TV is good because it is faster and some people cant read.</t>
   </si>
   <si>
+    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg624528</t>
   </si>
   <si>
     <t>Because it is a source of entertainment also its help people that cant read :)</t>
   </si>
   <si>
+    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg624244</t>
   </si>
   <si>
     <t>It Improves academic skills of a child .Television has made children enthusiastic and confident.  Children improve their academics and increase their ideas and innovations!!!</t>
+  </si>
+  <si>
+    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -238,40 +342,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -279,361 +387,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="B1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B34" activeCellId="0" pane="topLeft" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="148.647959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="148.647959183673"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>71</v>
       </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/TVbooks_tv.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/TVbooks_tv.xlsx
@@ -28,7 +28,7 @@
     <t>I love TV sooooooo much I can watch what ever i want and it is just the best.  with TV you can watch DVDs and play on playstations.</t>
   </si>
   <si>
-    <t>131,0.0,8.97,0.0,0.07,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>14.0,4.68,0.86,1.03,0.84,0.0,8.97,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.29,0.04,0.25,0.07,0.07,0.14,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg169194</t>
@@ -37,7 +37,7 @@
     <t>nowadayz no one can liv wdout t.v... its common to watch t.v to all... so......... t.v ix beter than bookxx.... evrybdy vot for t.v....</t>
   </si>
   <si>
-    <t>135,0.0,10.94,0.0,0.29,27.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>24.0,5.63,0.74,0.52,1.43,0.0,10.94,0.0,0.29,27.0,0,0,0.0,0.0,0.0,0.46,0.08,0.13,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.82</t>
   </si>
   <si>
     <t>arg479199</t>
@@ -46,7 +46,7 @@
     <t>TV is better than books because the educational programs on TV are much more convenient and easy to understand. It is also easy to use for people who cannot see or hear. Books are also likely to be not updated with latest information about a certain topic while information from TV can be much more accurate and useful.</t>
   </si>
   <si>
-    <t>319,1.0,14.29,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>19.33,5.5,1.79,1.55,1.16,1.0,14.29,0.0,0.0,1.0,0,0,0.0,0.05,0.0,0.17,0.19,0.21,0.1,0.1,0.02,0.07,0.0,0.0,0.0,4.29</t>
   </si>
   <si>
     <t>arg585676</t>
@@ -55,7 +55,7 @@
     <t>Television uses electricity and books such as harry potter are made of trees so it causes more damage to the environment.</t>
   </si>
   <si>
-    <t>121,0.0,16.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>21.0,5.76,0.65,0.52,1.26,0.0,16.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.19,0.0,0.0,0.05,0.14,0.13,0.0,0.0,4.22</t>
   </si>
   <si>
     <t>arg585674</t>
@@ -64,7 +64,7 @@
     <t>A picture is worth a thousand words. TV lets you see and hear a story, or information. Imagine just reading about the recent disasters in Japan, Alabama and Missouri vs. seeing them and seeing interviews with survivors. Much more powerful and immediate on TV.  Books take too much time. TV gives the info much faster.</t>
   </si>
   <si>
-    <t>317,0.0,14.01,0.0,0.02,1.17,0.0,0.05,0.0,0.3,0.3,0.3,0.0,0.0</t>
+    <t>9.17,5.76,1.69,3.09,0.55,0.0,14.01,0.0,0.02,1.17,0,0,0.0,0.05,20.0,0.29,0.15,0.15,0.07,0.07,0.04,0.04,0.0,0.0,0.0,3.23</t>
   </si>
   <si>
     <t>arg640285</t>
@@ -73,7 +73,7 @@
     <t>i believe books are better(i believe i can fly...)  So true.</t>
   </si>
   <si>
-    <t>60,0.0,8.19,0.0,0.09,4.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.0,5.45,0.34,0.52,0.66,0.0,8.19,0.0,0.09,4.0,0,0,0.0,0.0,0.0,0.18,0.18,0.36,0.09,0.09,0.0,0.0,0.0,0.0,0.0,7.25</t>
   </si>
   <si>
     <t>arg561428</t>
@@ -82,7 +82,7 @@
     <t>TV ,,!! because you can get information from different resources in a short time ,,, but Books you must read a lot to get that much of information !!</t>
   </si>
   <si>
-    <t>149,0.67,11.77,0.0,0.0,1.33,0.0,0.14,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>9.67,5.14,0.89,1.55,0.58,0.67,11.77,0.0,0.0,1.33,0,0,0.0,0.14,0.0,0.24,0.1,0.1,0.0,0.0,0.07,0.03,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>arg135689</t>
@@ -91,7 +91,7 @@
     <t>you can just sit on the couch with some crisps or a burger or sweets and watch tv when you cant be botherd to to anything else</t>
   </si>
   <si>
-    <t>126,0.0,10.54,0.0,0.04,0.0,0.0,0.0,0.0,0.05,0.15,0.15,0.25,0.0</t>
+    <t>27.0,4.67,0.83,0.52,1.61,0.0,10.54,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.22,0.0,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>arg399270</t>
@@ -100,7 +100,7 @@
     <t>Without TV actors/actresses wouldn't have jobs.  Without TV you wouldn't know what's happening around the world. I mean the newspapers can't fit all that in.  Books and newspapers can't give you emergency warnings or updates or new flashes</t>
   </si>
   <si>
-    <t>239,0.0,13.26,0.0,0.03,0.75,0.0,0.05,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>9.5,6.29,1.17,2.06,0.57,0.0,13.26,0.0,0.03,0.75,0,0,0.0,0.05,0.0,0.29,0.05,0.29,0.0,0.0,0.08,0.03,0.0,0.0,0.0,3.08</t>
   </si>
   <si>
     <t>arg376788</t>
@@ -109,7 +109,7 @@
     <t>BOOKZ SUCK BECAUSE it iz harder To SPELL lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol lollollollollollollollollollollollollollollollol</t>
   </si>
   <si>
-    <t>432,1.0,141.11,1.0,0.63,0.0,0.0,0.25,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>16.0,27.0,0.49,0.52,0.96,1.0,141.11,1.0,0.63,0.0,0,0,0.0,0.25,0.0,0.56,0.06,0.06,0.0,0.0,0.06,0.0,0.0,0.0,0.0,0.5</t>
   </si>
   <si>
     <t>arg470033</t>
@@ -118,7 +118,7 @@
     <t>I think T.V. is more helpful as the you can watch and listen to something being explained like if we read about budding or spore formation we have to create an image about that in mind, but when we watch the animation of budding then we could understand better. Some people can't even imagine so T.V. is helpful. As concerning the time limit or harm to our eyes, we should watch T.V. in a limit, because the excess of everything is harmful, even reading of books.  Surveys have found that a normal person can remember 10% of what he had read and 50% of what he had listened and watched.</t>
   </si>
   <si>
-    <t>586,0.29,13.08,0.0,0.0,1.43,0.0,0.05,0.0,0.35,0.45,0.45,0.17,0.17</t>
+    <t>15.71,5.33,3.39,3.61,0.94,0.29,13.08,0.0,0.0,1.43,4,2,0.0,0.05,0.0,0.19,0.04,0.26,0.05,0.05,0.09,0.01,0.0,0.17,0.17,3.82</t>
   </si>
   <si>
     <t>arg420287</t>
@@ -127,7 +127,7 @@
     <t>I like tv because you can watch all the porn you want with your family.</t>
   </si>
   <si>
-    <t>71,1.0,9.67,1.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.27,0.0,0.0,0.0,0.0,5.0</t>
   </si>
   <si>
     <t>arg637551</t>
@@ -136,7 +136,7 @@
     <t>TV can be better than books because TV can show the characters' faces and the action can be displayed that is hard for one to decipher from a book.</t>
   </si>
   <si>
-    <t>147,1.0,12.58,0.0,0.03,1.0,0.0,0.07,0.0,0.2,0.15,0.15,0.08,0.17</t>
+    <t>29.0,5.07,0.89,0.52,1.73,1.0,12.58,0.0,0.03,1.0,0,0,0.0,0.07,0.0,0.24,0.07,0.24,0.0,0.0,0.0,0.0,0.0,0.17,0.17,4.5</t>
   </si>
   <si>
     <t>arg585686</t>
@@ -145,7 +145,7 @@
     <t>TV is important for communication. This is to cross the charector limit.</t>
   </si>
   <si>
-    <t>72,0.0,13.57,0.0,0.08,1.0,0.0,0.08,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>6.0,6.0,0.37,1.03,0.36,0.0,13.57,0.0,0.08,1.0,0,0,0.0,0.08,0.0,0.42,0.08,0.25,0.0,0.0,0.0,0.08,0.13,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg391600</t>
@@ -154,7 +154,7 @@
     <t>TV is WAY better than reading books from the blimem OLDEN DAYS!!!</t>
   </si>
   <si>
-    <t>65,0.0,9.65,0.0,0.08,1.5,0.0,0.33,0.0,0.15,0.2,0.2,0.08,0.17</t>
+    <t>6.0,5.42,0.37,1.03,0.36,0.0,9.65,0.0,0.08,1.5,0,0,0.0,0.33,0.0,0.33,0.08,0.17,0.0,0.0,0.0,0.0,0.0,0.17,0.17,8.33</t>
   </si>
   <si>
     <t>arg618914</t>
@@ -163,7 +163,7 @@
     <t>Unless the brain is used no human being can understand any medium. Be it TV or books. By watching the television people can create a make believe situation and think. "What if they would go left? They would be SAVED, wouldn't they?" Even viewing tv requires brains. And moreover we can watch television in the dark. But to read a book you need the lights on. Which also wastes electricity.</t>
   </si>
   <si>
-    <t>389,0.33,11.81,0.0,0.0,1.0,0.0,0.03,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>7.78,5.56,2.16,4.64,0.47,0.33,11.81,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.19,0.03,0.24,0.03,0.03,0.07,0.04,0.0,0.0,0.0,4.7</t>
   </si>
   <si>
     <t>arg246025</t>
@@ -172,7 +172,7 @@
     <t>tv because only tv can bring u live news at books u can't find also it's educational.</t>
   </si>
   <si>
-    <t>85,2.0,9.78,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>17.0,5.0,0.52,0.52,1.02,2.0,9.78,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.29,0.12,0.06,0.06,0.0,0.06,0.0,0.0,0.0,5.29</t>
   </si>
   <si>
     <t>arg243908</t>
@@ -181,7 +181,7 @@
     <t>People who are against tv keep on saying that it causes obesity.  I'm not going to go for a run and bring a book to read on the way. I think it is much easier to exercise watching tv then reading a book.  In gyms people do not have books infront of them, instead they have telvisions.  Studies have shown that telivision is even more stimulating than books.</t>
   </si>
   <si>
-    <t>357,0.0,11.94,0.0,0.04,1.0,0.0,0.0,0.0,0.3,0.35,0.3,0.08,0.0</t>
+    <t>13.6,5.25,2.09,2.58,0.81,0.0,11.94,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.29,0.1,0.1,0.06,0.01,0.0,0.0,0.0,5.06</t>
   </si>
   <si>
     <t>arg169089</t>
@@ -190,7 +190,7 @@
     <t>tv is better than books because you learn easier by seeing not read.</t>
   </si>
   <si>
-    <t>68,1.0,12.23,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>13.0,5.23,0.4,0.52,0.78,1.0,12.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.15,0.31,0.08,0.08,0.08,0.0,0.0,0.0,0.0,9.8</t>
   </si>
   <si>
     <t>arg525686</t>
@@ -199,7 +199,7 @@
     <t>tv is better than book dathu ihfej tijkjdrk xtklp09 guil09 sfjiiytg dh,lut457 p[];o;l</t>
   </si>
   <si>
-    <t>85,0.0,9.51,0.0,0.62,0.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>13.0,6.54,0.4,0.52,0.78,0.0,9.51,0.0,0.62,0.0,7,0,0.0,0.0,0.0,0.54,0.08,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.86</t>
   </si>
   <si>
     <t>arg363603</t>
@@ -208,7 +208,7 @@
     <t>I think TV is better if you are watching an informational channel and it is better than books because you can switch to different informational channels an search documentaries on different subjects and when you are done learning and ready to relax you can switch to a funny show or what ever you want to watch.</t>
   </si>
   <si>
-    <t>311,1.0,16.22,0.0,0.0,1.0,0.0,0.02,0.0,0.2,0.3,0.35,0.0,0.0</t>
+    <t>56.0,5.55,1.72,0.52,3.35,1.0,16.22,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.14,0.11,0.21,0.05,0.05,0.13,0.04,0.13,0.0,0.0,4.79</t>
   </si>
   <si>
     <t>arg136713</t>
@@ -217,7 +217,7 @@
     <t>GO TV!!!!!! GO TV!!!!  TV will win hopefully LOL  TV is great to watch anything</t>
   </si>
   <si>
-    <t>79,0.0,4.55,0.0,0.0,3.33,0.0,0.47,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>5.0,5.27,0.46,1.55,0.3,0.0,4.55,0.0,0.0,3.33,0,0,0.0,0.47,0.0,0.4,0.07,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,4.2</t>
   </si>
   <si>
     <t>arg420288</t>
@@ -226,7 +226,7 @@
     <t>tv is far superior due to its wider variety of thing to do and some people say that tv is incontinent but now you can watch tv on a smart phone witch is very convenient.</t>
   </si>
   <si>
-    <t>169,1.0,11.58,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.08,0.17</t>
+    <t>35.0,4.83,1.08,0.52,2.09,1.0,11.58,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.17,0.09,0.09,0.06,0.06,0.13,0.17,0.17,2.92</t>
   </si>
   <si>
     <t>arg376774</t>
@@ -235,7 +235,7 @@
     <t>TV is better because you can just explore the world while sitting on a couch.</t>
   </si>
   <si>
-    <t>77,1.0,12.02,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.08,0.0</t>
+    <t>15.0,5.13,0.46,0.52,0.9,1.0,12.02,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.13,0.13,0.07,0.0,0.0,0.0,0.0,1.6</t>
   </si>
   <si>
     <t>arg218504</t>
@@ -244,7 +244,7 @@
     <t>Yes I would say it has you relax in case your tired, but you can read to relax as well. Plus have you ever considered about the commercials and how annoying they are?</t>
   </si>
   <si>
-    <t>166,0.5,11.45,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>16.5,5.03,1.02,1.03,0.99,0.5,11.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.27,0.03,0.03,0.21,0.06,0.13,0.0,0.0,3.43</t>
   </si>
   <si>
     <t>arg135777</t>
@@ -253,7 +253,7 @@
     <t>can people say some points on TV is better than books because at our school were doing a debate can you please help!!!</t>
   </si>
   <si>
-    <t>118,0.5,11.03,0.0,0.0,1.5,0.0,0.04,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>11.5,5.13,0.71,1.03,0.69,0.5,11.03,0.0,0.0,1.5,0,0,0.0,0.04,0.0,0.22,0.04,0.26,0.0,0.0,0.09,0.0,0.0,0.0,0.0,6.67</t>
   </si>
   <si>
     <t>arg420291</t>
@@ -262,7 +262,7 @@
     <t>I like tv tv is cool and tv is great tv is like the baby in my womb it is like the sun in the morning is is like the cool brisk air on your first day of school it is like the day you get diegnosedca with cancer it is like the day when you find out that you are lesbian it is like the day that you realize you just wasted your time reading this</t>
   </si>
   <si>
-    <t>343,0.0,10.01,0.0,0.01,0.0,0.0,0.0,0.0,0.25,0.25,0.2,0.17,0.33</t>
+    <t>77.0,4.45,2.37,0.52,4.6,0.0,10.01,0.0,0.01,0.0,0,0,0.0,0.0,0.0,0.23,0.1,0.19,0.01,0.01,0.17,0.0,0.0,0.33,0.33,2.42</t>
   </si>
   <si>
     <t>arg399268</t>
@@ -271,7 +271,7 @@
     <t>you can get the "Foxtel Go" app on your Ipad so you can watch TV where ever and whenever you want.</t>
   </si>
   <si>
-    <t>98,0.0,9.39,0.0,0.14,1.0,0.0,0.05,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>21.0,4.67,0.65,0.52,1.26,0.0,9.39,0.0,0.14,1.0,0,0,0.0,0.05,6.67,0.24,0.0,0.14,0.05,0.05,0.19,0.0,0.0,0.0,0.0,3.6</t>
   </si>
   <si>
     <t>arg135683</t>
@@ -280,7 +280,7 @@
     <t>I'm not sayin this cuz I love the tube, but you get more imformation than you think in the tube.  EX) News, Baseball, Spongebob, etc.</t>
   </si>
   <si>
-    <t>133,0.5,10.76,0.0,0.16,1.0,0.0,0.04,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>12.5,5.32,0.77,1.03,0.75,0.5,10.76,0.0,0.16,1.0,0,0,0.0,0.04,6.67,0.32,0.04,0.16,0.04,0.04,0.12,0.0,0.0,0.0,0.0,0.88</t>
   </si>
   <si>
     <t>arg624272</t>
@@ -289,7 +289,7 @@
     <t>I learned English through TV.  Technically, I learned English through interaction with native speakers, but TV helped a lot more than books.</t>
   </si>
   <si>
-    <t>140,0.5,17.59,0.0,0.0,1.0,0.0,0.09,0.0,0.1,0.15,0.2,0.0,0.0</t>
+    <t>11.0,6.36,0.68,1.03,0.66,0.5,17.59,0.0,0.0,1.0,0,0,0.0,0.09,0.0,0.27,0.09,0.14,0.0,0.0,0.09,0.09,0.25,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>arg135741</t>
@@ -298,7 +298,7 @@
     <t>You can watch TV in one sitting where as a book takes all day to read. So no physical exercise will get done reading books. Exercise shows on TV make you move. SO TV IS WAY BETTER THEN BOOKS!!!!!!!</t>
   </si>
   <si>
-    <t>197,0.0,8.6,0.0,0.0,2.0,0.0,0.23,0.0,0.4,0.4,0.4,0.0,0.0</t>
+    <t>7.8,5.05,1.2,2.58,0.47,0.0,8.6,0.0,0.0,2.0,0,0,0.0,0.23,0.0,0.31,0.03,0.23,0.0,0.0,0.05,0.0,0.0,0.0,0.0,7.36</t>
   </si>
   <si>
     <t>arg399267</t>
@@ -307,7 +307,7 @@
     <t>If you can only understand or speak a specific language but you move to another country then most of the books are not in your language but TV comes in all different languages and you can also hear how the words are pronounced in a different language.</t>
   </si>
   <si>
-    <t>251,3.0,14.85,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.25,0.25,0.08,0.0</t>
+    <t>47.0,5.34,1.45,0.52,2.81,3.0,14.85,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.23,0.09,0.17,0.09,0.09,0.09,0.04,0.0,0.0,0.0,4.18</t>
   </si>
   <si>
     <t>arg135675</t>
@@ -316,7 +316,7 @@
     <t>I think that TV is good because it is faster and some people cant read.</t>
   </si>
   <si>
-    <t>71,1.0,9.67,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>15.0,4.73,0.46,0.52,0.9,1.0,9.67,0.0,0.0,1.0,0,0,0.0,0.07,0.0,0.2,0.07,0.27,0.07,0.07,0.13,0.0,0.0,0.0,0.0,5.6</t>
   </si>
   <si>
     <t>arg624528</t>
@@ -325,7 +325,7 @@
     <t>Because it is a source of entertainment also its help people that cant read :)</t>
   </si>
   <si>
-    <t>78,2.0,13.59,0.0,0.0,0.0,0.0,0.07,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>15.0,5.2,0.46,0.52,0.9,2.0,13.59,0.0,0.0,0.0,0,0,0.0,0.07,0.0,0.2,0.0,0.2,0.07,0.07,0.13,0.07,0.13,0.0,0.0,6.75</t>
   </si>
   <si>
     <t>arg624244</t>
@@ -334,7 +334,7 @@
     <t>It Improves academic skills of a child .Television has made children enthusiastic and confident.  Children improve their academics and increase their ideas and innovations!!!</t>
   </si>
   <si>
-    <t>174,0.0,20.48,0.0,0.0,1.67,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>8.0,7.25,0.74,1.55,0.48,0.0,20.48,0.0,0.0,1.67,0,0,0.0,0.0,0.0,0.33,0.13,0.21,0.0,0.0,0.13,0.13,0.0,0.0,0.0,0.33</t>
   </si>
 </sst>
 </file>
